--- a/GUISeleniumFramework/testdata/SCM_Project.xlsx
+++ b/GUISeleniumFramework/testdata/SCM_Project.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Login Type</t>
   </si>
@@ -28,13 +29,200 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>vidyashree</t>
+  </si>
+  <si>
+    <t>vidya12@gmail.com</t>
+  </si>
+  <si>
+    <t>8974569874</t>
+  </si>
+  <si>
+    <t>vidya</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>add manufacturer</t>
+  </si>
+  <si>
+    <t>edit profile</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>change password</t>
+  </si>
+  <si>
+    <t>OLD Password</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>confirm Password</t>
+  </si>
+  <si>
+    <t>AddRetailer</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>areacode</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>preethi</t>
+  </si>
+  <si>
+    <t>VSTR (Vastrapur)</t>
+  </si>
+  <si>
+    <t>4525789632</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone </t>
+  </si>
+  <si>
+    <t>preth23@gmail.com</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hydrabad
+ 3rd cross</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>searchby</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>categoryname</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>add category</t>
+  </si>
+  <si>
+    <t>Desertfood</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>updatecategory</t>
+  </si>
+  <si>
+    <t>Desrtfoody</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Addunit</t>
+  </si>
+  <si>
+    <t>unitname</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>mililiter</t>
+  </si>
+  <si>
+    <t>MILI</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>unitType</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>add product</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>layschips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bread Buns </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +230,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,17 +268,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -117,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,6 +409,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,22 +585,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,30 +618,263 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
